--- a/biology/Botanique/Raputia/Raputia.xlsx
+++ b/biology/Botanique/Raputia/Raputia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raputia
 Raputia est un genre d'arbuste, appartenant à la famille des Rutaceae (familles des agrumes), et dont l'espèce type est Raputia aromatica Aubl..
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si Aublet ne donne pas d'explication étymologique pour Raputia on peut supposer qu'il fait référence à l'Orapu, lieu de découverte de l'espèce type.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Raputia regroupe des arbustes ou des arbres atteignant jusqu'à 13 m de haut. 
 Les feuilles pétiolées, sont opposées et composées uni- ou tri-foliolées. Le limbe est entier, papyracé à coriace une fois secs. 
@@ -551,7 +567,7 @@
 Les fleurs sont zygomorphes, avec 5 sépales 5, connés à la base, organisés en quinconce, se chevauchant largement, persistants au stade du fruit. La corolle blanche ou vert pâle, mesure jusqu'à 1,5 cm de long, est recourbée, un tube court portant 5 lobes imbriqués, et organisés en 2 lèvres : 4 lobes formant une lèvre recourbée et le lobe le plus interne moins conné forme l'autre lèvre. 
 L'androcée se compose de 2 étamines fertiles et (2) 3 staminodes en forme de poinçon, distinctes mais adhérentes à la corolle par des filets pubescents. Les  anthères sont oblongues ou ovales étroites, basifixes, connées, avec des appendices visibles, asymétriques ou falciformes à la base. 
 On observe un disque en cupule glabre, plus court ou plus haut que l'ovaire. L'ovaire comporte 5 carpelles libres, contenant 2 ovules chacun. Le style porte un stigmate obliquement capité. 
-Le fruit se compose de 1 à 5 méricarpes libres, déhiscents ventralement, contenant chacun 1 graine oblongue, lisse et glabre[2].
+Le fruit se compose de 1 à 5 méricarpes libres, déhiscents ventralement, contenant chacun 1 graine oblongue, lisse et glabre.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « RAPUTIA. (Tabula 272.)
 CAL. Perianthium monophyllum, quinque-dentatum, denticulis ſubrotundis, acutis. 
 COR. monopetala, tubuloſe, incurva, ſubviridis, bilabiata, labio ſuperiori trifido, lobo intermedio longiori, labio inferiori biſido ; receptaculo germinis inſerta. 
@@ -618,7 +636,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon (en) Référence World Flora Online (WFO) : Raputia  (+descriptions) :
 Raputia amazonica (Huber) Kallunki
